--- a/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,16</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,64; 2,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 7,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 7,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 5,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 11,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 13,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 2,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 7,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 9,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,68%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,36; 131,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,51; 274,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,85; 234,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,48; 224,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,6; 419,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,96; 550,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,12; 61,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; 207,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,24; 256,01</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 7,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 6,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 5,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 4,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 6,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 5,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,15%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,44; 90,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,2; 141,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,65; 139,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 148,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,53; 183,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,92; 160,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,89; 88,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,28; 125,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,75; 114,55</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 4,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 4,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 2,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 2,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 2,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 2,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,54</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,45; 51,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,76; 85,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 82,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 49,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,83; 38,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,01; 33,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,31; 35,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 43,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 43,2</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 7,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 5,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 5,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 4,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 1,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 4,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 5,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 3,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,03%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,57%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,83; 128,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,41; 205,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,37; 159,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 111,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; 88,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,61; 36,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,58; 88,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,51; 116,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 65,96</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 6,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 4,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 6,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,0; 6,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 4,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 3,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 5,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 3,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 4,49</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,87%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,09; 145,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 92,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,8; 152,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,87; 155,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 95,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; 80,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,96; 122,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,35; 72,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,0; 96,2</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 3,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 4,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 3,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 2,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 3,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 2,99</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,32%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 56,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,48; 77,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,43; 86,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,89; 66,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,87; 56,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 40,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,11; 53,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,47; 57,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,63; 55,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>1,38</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>3,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 2,46</t>
+          <t>-2,05; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 7,7</t>
+          <t>0,49; 6,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 7,52</t>
+          <t>0,51; 6,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 5,55</t>
+          <t>-0,4; 4,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 11,29</t>
+          <t>0,93; 6,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 13,35</t>
+          <t>1,99; 6,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 2,08</t>
+          <t>-0,49; 3,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,8</t>
+          <t>1,43; 5,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,37</t>
+          <t>2,24; 5,45</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,52%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>157,36%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>65,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>69,06%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 131,88</t>
+          <t>-28,71; 67,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 274,22</t>
+          <t>5,64; 123,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,85; 234,49</t>
+          <t>5,88; 119,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,48; 224,34</t>
+          <t>-9,6; 118,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 419,6</t>
+          <t>12,42; 169,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,96; 550,9</t>
+          <t>29,95; 179,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 61,97</t>
+          <t>-7,88; 69,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 207,08</t>
+          <t>22,61; 115,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 256,01</t>
+          <t>33,63; 118,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,43</t>
+          <t>-1,81; 2,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,04</t>
+          <t>-0,5; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,79</t>
+          <t>-3,3; 3,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,37</t>
+          <t>-2,03; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,83</t>
+          <t>-2,59; 2,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,67</t>
+          <t>-2,15; 2,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,11</t>
+          <t>-1,34; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,02</t>
+          <t>-0,76; 2,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,3</t>
+          <t>-2,45; 1,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>65,15%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 90,59</t>
+          <t>-25,45; 51,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 141,43</t>
+          <t>-6,76; 85,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 139,26</t>
+          <t>-46,98; 55,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 148,22</t>
+          <t>-23,19; 49,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 183,75</t>
+          <t>-28,83; 38,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 160,49</t>
+          <t>-23,24; 34,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 88,32</t>
+          <t>-17,31; 35,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,28; 125,59</t>
+          <t>-10,27; 43,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 114,55</t>
+          <t>-31,7; 30,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,55</t>
+          <t>-0,36; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,18</t>
+          <t>2,28; 7,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,05</t>
+          <t>0,84; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,98</t>
+          <t>-0,3; 5,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,47</t>
+          <t>-0,77; 4,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,08</t>
+          <t>-4,74; 1,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,14</t>
+          <t>0,59; 4,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,53</t>
+          <t>1,44; 5,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,54</t>
+          <t>-1,77; 2,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>100,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-22,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 51,88</t>
+          <t>-9,83; 128,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 85,6</t>
+          <t>39,41; 205,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 82,16</t>
+          <t>12,52; 154,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 49,25</t>
+          <t>-4,39; 111,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 38,63</t>
+          <t>-12,98; 88,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 33,18</t>
+          <t>-62,43; 21,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 35,61</t>
+          <t>7,58; 88,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 43,77</t>
+          <t>22,51; 116,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 43,2</t>
+          <t>-27,45; 53,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,3</t>
+          <t>1,75; 6,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,5</t>
+          <t>0,09; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,76</t>
+          <t>2,01; 6,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,12</t>
+          <t>2,0; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,44</t>
+          <t>0,1; 4,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,68</t>
+          <t>-0,92; 3,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,05</t>
+          <t>2,55; 5,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,33</t>
+          <t>0,52; 3,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,06</t>
+          <t>1,14; 4,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>100,03%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>75,48%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>77,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>48,77%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 128,73</t>
+          <t>30,09; 145,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,41; 205,44</t>
+          <t>1,52; 92,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,37; 159,28</t>
+          <t>32,48; 147,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 111,96</t>
+          <t>28,87; 155,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 88,16</t>
+          <t>-1,75; 95,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,61; 36,3</t>
+          <t>-13,67; 71,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,58; 88,39</t>
+          <t>40,96; 122,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,51; 116,24</t>
+          <t>8,35; 72,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 65,96</t>
+          <t>19,29; 90,83</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,32</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,05</t>
+          <t>1,48; 3,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,52</t>
+          <t>0,71; 3,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,79</t>
+          <t>1,2; 3,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,43</t>
+          <t>0,53; 3,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,55</t>
+          <t>-0,57; 1,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,84</t>
+          <t>1,21; 2,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,58</t>
+          <t>1,42; 3,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,49</t>
+          <t>0,54; 2,57</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>77,26%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>29,05%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>30,09; 145,83</t>
+          <t>6,85; 56,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,52; 92,07</t>
+          <t>23,48; 77,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>34,8; 152,22</t>
+          <t>11,93; 75,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28,87; 155,45</t>
+          <t>17,89; 66,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 95,42</t>
+          <t>7,87; 56,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 80,54</t>
+          <t>-8,57; 34,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>40,96; 122,18</t>
+          <t>19,11; 53,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,35; 72,64</t>
+          <t>22,47; 57,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>26,0; 96,2</t>
+          <t>9,74; 47,39</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,22</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 2,9</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 3,88</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 4,42</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 3,66</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 3,17</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 2,26</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 2,92</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 3,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 2,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>30,81%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>49,63%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>57,59%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>39,26%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>29,12%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>20,28%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>35,3%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>38,76%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>37,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 56,89</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>23,48; 77,15</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>31,43; 86,11</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>17,89; 66,88</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 56,4</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 40,29</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>19,11; 53,55</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>22,47; 57,97</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>21,63; 55,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,32</t>
+          <t>-2,16; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,02</t>
+          <t>0,64; 6,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 6,08</t>
+          <t>0,74; 6,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,59</t>
+          <t>-0,22; 4,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 6,45</t>
+          <t>0,85; 6,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,55</t>
+          <t>2,4; 6,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,2</t>
+          <t>-0,52; 3,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,46</t>
+          <t>1,86; 5,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,45</t>
+          <t>2,2; 5,54</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 67,18</t>
+          <t>-27,85; 66,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 123,16</t>
+          <t>8,57; 130,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 119,31</t>
+          <t>8,77; 119,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 118,23</t>
+          <t>-8,27; 119,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 169,01</t>
+          <t>10,3; 162,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,95; 179,59</t>
+          <t>37,3; 181,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 69,24</t>
+          <t>-8,75; 67,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 115,16</t>
+          <t>28,31; 116,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,63; 118,57</t>
+          <t>33,15; 122,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,55</t>
+          <t>-1,92; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,18</t>
+          <t>-0,57; 4,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,01</t>
+          <t>-3,46; 3,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,98</t>
+          <t>-1,95; 2,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,47</t>
+          <t>-2,56; 2,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,17</t>
+          <t>-2,21; 2,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,14</t>
+          <t>-1,2; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,53</t>
+          <t>-0,86; 2,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,89</t>
+          <t>-2,51; 1,71</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 51,88</t>
+          <t>-26,13; 50,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 85,6</t>
+          <t>-10,23; 79,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 55,87</t>
+          <t>-43,89; 55,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 49,25</t>
+          <t>-21,41; 45,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 38,63</t>
+          <t>-28,98; 37,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 34,76</t>
+          <t>-23,75; 34,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 35,61</t>
+          <t>-15,57; 34,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 43,77</t>
+          <t>-11,48; 42,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 30,04</t>
+          <t>-34,34; 25,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,3</t>
+          <t>-0,54; 4,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,5</t>
+          <t>1,81; 7,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,62</t>
+          <t>0,9; 5,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,12</t>
+          <t>-0,14; 5,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,44</t>
+          <t>-0,98; 4,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,07</t>
+          <t>-4,53; 1,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,05</t>
+          <t>0,41; 3,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,33</t>
+          <t>1,33; 5,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,59</t>
+          <t>-1,47; 2,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 128,73</t>
+          <t>-11,07; 123,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,41; 205,44</t>
+          <t>28,85; 205,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,52; 154,68</t>
+          <t>12,14; 162,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 111,96</t>
+          <t>-2,76; 115,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 88,16</t>
+          <t>-14,56; 97,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 21,87</t>
+          <t>-62,03; 20,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,58; 88,39</t>
+          <t>6,64; 86,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,51; 116,24</t>
+          <t>21,6; 111,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 53,89</t>
+          <t>-25,16; 54,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,32</t>
+          <t>1,93; 6,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,05</t>
+          <t>-0,11; 4,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,26</t>
+          <t>1,94; 6,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,79</t>
+          <t>1,93; 6,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,43</t>
+          <t>-0,17; 4,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,18</t>
+          <t>-0,96; 3,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,84</t>
+          <t>2,42; 5,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,58</t>
+          <t>0,55; 3,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,17</t>
+          <t>1,2; 4,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,09; 145,83</t>
+          <t>30,28; 159,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 92,07</t>
+          <t>-2,45; 94,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,48; 147,4</t>
+          <t>33,12; 142,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,87; 155,45</t>
+          <t>28,35; 146,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 95,42</t>
+          <t>-3,24; 94,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 71,34</t>
+          <t>-13,16; 68,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,96; 122,18</t>
+          <t>40,08; 120,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,35; 72,64</t>
+          <t>7,61; 78,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,29; 90,83</t>
+          <t>19,17; 86,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,9</t>
+          <t>0,58; 2,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,88</t>
+          <t>1,6; 3,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,9</t>
+          <t>0,81; 3,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,66</t>
+          <t>1,19; 3,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,17</t>
+          <t>0,44; 2,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,94</t>
+          <t>-0,65; 1,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,92</t>
+          <t>1,21; 2,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,16</t>
+          <t>1,46; 3,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,57</t>
+          <t>0,6; 2,69</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,85; 56,89</t>
+          <t>9,13; 56,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,48; 77,15</t>
+          <t>24,88; 78,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,93; 75,61</t>
+          <t>14,5; 75,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,89; 66,88</t>
+          <t>17,73; 65,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,87; 56,4</t>
+          <t>6,44; 53,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 34,61</t>
+          <t>-10,15; 33,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,11; 53,55</t>
+          <t>18,82; 53,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,47; 57,97</t>
+          <t>22,72; 58,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,74; 47,39</t>
+          <t>9,74; 48,69</t>
         </is>
       </c>
     </row>
